--- a/site/ValueSet-ecog-performance-status.xlsx
+++ b/site/ValueSet-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-ecog-performance-status.xlsx
+++ b/site/ValueSet-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-ecog-performance-status.xlsx
+++ b/site/ValueSet-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
